--- a/attached_assets/LISTADO PUERTOS - IMPORT hacia ECUADOR_1763870157687.xlsx
+++ b/attached_assets/LISTADO PUERTOS - IMPORT hacia ECUADOR_1763870157687.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abenincasa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\proyectos\clone_ag__prueba_pytoflutter_importayaia_v2\referencia-ImportaYAia-python\attached_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82EC373-E381-4F83-8A02-D74678600B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAA1426-66D2-41E4-B6FA-CA205349C533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97197B82-D156-4FC1-964C-A3DEC16177B0}"/>
   </bookViews>
@@ -825,6 +825,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAB2E4F-A9EF-4234-865C-328202A42DA7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:A128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1477,6 +1480,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>